--- a/output/fit_clients/fit_round_104.xlsx
+++ b/output/fit_clients/fit_round_104.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2195450020.221254</v>
+        <v>1638570092.699064</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1133271155861666</v>
+        <v>0.08734452008985988</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04321188829255473</v>
+        <v>0.03233387720748949</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1097725032.000858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2156160568.285733</v>
+        <v>2270010491.959557</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1464522146005879</v>
+        <v>0.1187560606051741</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04085597235795785</v>
+        <v>0.04608369772336408</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1078080348.323136</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4465889552.88896</v>
+        <v>4532612984.415797</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1454422360082517</v>
+        <v>0.155665994361923</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02614889848962138</v>
+        <v>0.03716268786105992</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2232944823.566974</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3581909389.518775</v>
+        <v>3411576354.16263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06741271180518539</v>
+        <v>0.08350965238573749</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03750161285479564</v>
+        <v>0.03764330429857617</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>41</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1790954726.058149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1967093286.640885</v>
+        <v>2799431533.808106</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09332051693018784</v>
+        <v>0.09289206930721691</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04279001433822643</v>
+        <v>0.03692383608164913</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>983546676.4087051</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2611996453.081632</v>
+        <v>2020605037.351532</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07169580370053327</v>
+        <v>0.06230628257113961</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03607339672004704</v>
+        <v>0.04904687443330356</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1305998228.725391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2635673139.701039</v>
+        <v>2405520243.151183</v>
       </c>
       <c r="F8" t="n">
-        <v>0.138155295671455</v>
+        <v>0.1983249542029509</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02287047681119108</v>
+        <v>0.03203288124129097</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1317836590.049381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1655489432.202098</v>
+        <v>1668137938.431652</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1614885611104313</v>
+        <v>0.1362115616640605</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02997708212920878</v>
+        <v>0.03678450096177426</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>827744790.4495008</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3674427454.772054</v>
+        <v>4898426450.412227</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1624439720603912</v>
+        <v>0.1882036396152781</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04615765502757486</v>
+        <v>0.04214941904106293</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>44</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1837213723.974994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2789260267.871811</v>
+        <v>3952940660.404672</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1540971044757732</v>
+        <v>0.1654915433846057</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03702278225613772</v>
+        <v>0.03102948874746905</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>43</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1394630062.075443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2911924751.027663</v>
+        <v>2321796848.42329</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1867257992232722</v>
+        <v>0.1502280744579549</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03354126131314368</v>
+        <v>0.04130872044730018</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>36</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1455962385.393758</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4363228978.651411</v>
+        <v>3751350567.440302</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09803461689528795</v>
+        <v>0.1006100037062811</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02933718170272686</v>
+        <v>0.03044032026652329</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>35</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2181614525.746644</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2884946549.641435</v>
+        <v>3357662013.665696</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1547382868717972</v>
+        <v>0.1508869492894301</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03417180158104918</v>
+        <v>0.03594751459480063</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>33</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1442473317.532591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1652000634.444667</v>
+        <v>1294189399.521126</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1045537009618683</v>
+        <v>0.1071534584755782</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0433863453246826</v>
+        <v>0.04090347743364085</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>826000437.1202551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2234468514.199096</v>
+        <v>1864636759.001107</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09702319077000034</v>
+        <v>0.1080383511997228</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04270351307827498</v>
+        <v>0.05097520830603741</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1117234311.571851</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4842189850.635842</v>
+        <v>4846889923.156082</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1379085767101807</v>
+        <v>0.1751782167093145</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03647264234100116</v>
+        <v>0.04382146173141353</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>30</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2421094918.216588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2479361244.2231</v>
+        <v>2509902264.130177</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1853822451910079</v>
+        <v>0.1660904554441412</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03362078485594312</v>
+        <v>0.02616471364986325</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>34</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1239680689.967772</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1213753426.404949</v>
+        <v>1005897739.410882</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1161449202265425</v>
+        <v>0.134273992311675</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01921019722822343</v>
+        <v>0.01891294240076947</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>606876794.4341996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2150337594.963104</v>
+        <v>1738583292.862707</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1412232396718562</v>
+        <v>0.1586386774910195</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03018972040555105</v>
+        <v>0.02148055929947605</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1075168807.732614</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1882748130.309706</v>
+        <v>2445119720.638659</v>
       </c>
       <c r="F21" t="n">
-        <v>0.072995554752624</v>
+        <v>0.09224624097353717</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04239094576832398</v>
+        <v>0.04371987105073447</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>941374112.2148174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3479288345.155874</v>
+        <v>2539499339.869778</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1010439387498758</v>
+        <v>0.1387423125257592</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04324713465788196</v>
+        <v>0.04387609124289043</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>29</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1739644205.344479</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1360573694.86799</v>
+        <v>1174479624.813851</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1736524606292396</v>
+        <v>0.1708039633150367</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04911379238229033</v>
+        <v>0.05075805656540501</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>680286856.8047141</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4003207421.484849</v>
+        <v>2661533400.341694</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1357730339319684</v>
+        <v>0.128886507570088</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0376068611578745</v>
+        <v>0.03088853599727397</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>30</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2001603678.443116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>970456674.2621247</v>
+        <v>1449125142.57007</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08457322882726799</v>
+        <v>0.0770327955920778</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02889759712508161</v>
+        <v>0.01879151357194808</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>485228407.8478597</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1037216895.870749</v>
+        <v>1065462568.499382</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1140399283359548</v>
+        <v>0.1209951379009456</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0373853837161938</v>
+        <v>0.02437478873004448</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>518608429.0929022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4335477814.147902</v>
+        <v>3092719598.44612</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1063473396268529</v>
+        <v>0.1072300493048272</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0245917077356104</v>
+        <v>0.01829990831241305</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2167738900.502433</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3239298397.0238</v>
+        <v>2609312578.731591</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09235520695277864</v>
+        <v>0.110968440124807</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05031493473204874</v>
+        <v>0.04988558648436506</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>34</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1619649230.434921</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5752826354.20244</v>
+        <v>5541503416.494694</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1041188203478787</v>
+        <v>0.1201021910200114</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03299557532905753</v>
+        <v>0.03930096222422163</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>48</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2876413072.417425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1734527678.958793</v>
+        <v>2238194003.389237</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1136525126374836</v>
+        <v>0.1397183043122243</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02521338080828488</v>
+        <v>0.03124523583365269</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>867263846.6275681</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1203047311.294396</v>
+        <v>1166103187.178943</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0693524861415495</v>
+        <v>0.09924677808524192</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04686838950791801</v>
+        <v>0.04671684447276238</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>601523606.335718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1733976663.075099</v>
+        <v>1489652242.307994</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09197036024169609</v>
+        <v>0.1198220813207158</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02769286044010722</v>
+        <v>0.03220261994411566</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>866988448.2902702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2084306439.751202</v>
+        <v>2669794194.489499</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2061529330050932</v>
+        <v>0.149110517876272</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04534527428259988</v>
+        <v>0.04620609973879181</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>30</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1042153293.422072</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1335610930.989996</v>
+        <v>1213263473.586418</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07898861871503983</v>
+        <v>0.1151760850834379</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0221839890433045</v>
+        <v>0.02697245524368373</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>667805448.2329899</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1350228043.43098</v>
+        <v>885873942.4294875</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1155795939812355</v>
+        <v>0.1132201036574337</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03705537859545242</v>
+        <v>0.04019148989600763</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>675113963.4241784</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2043884436.948745</v>
+        <v>3054792694.432564</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1153852673750757</v>
+        <v>0.1407121169132878</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02777122675860418</v>
+        <v>0.01838062498134153</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>26</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1021942276.943381</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2674171956.974543</v>
+        <v>2064006114.727571</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1044686081037146</v>
+        <v>0.09750027432706568</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0407866365565548</v>
+        <v>0.02746133139348588</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>27</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1337086098.436618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1754507388.724939</v>
+        <v>1524463137.361614</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09381690427154873</v>
+        <v>0.09162117857909972</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03987390292901586</v>
+        <v>0.02869325439900725</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>877253707.6036723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1408109163.739895</v>
+        <v>1988030528.412326</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1474259597224785</v>
+        <v>0.1283482780437859</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02009880013326516</v>
+        <v>0.02292802945334646</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>704054666.1977459</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1756757103.396097</v>
+        <v>1817853792.024153</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1037117697757568</v>
+        <v>0.1547347342978163</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04631154296418379</v>
+        <v>0.04386043708741579</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>878378453.5157844</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2278932653.516302</v>
+        <v>2017775731.791286</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1648236775049617</v>
+        <v>0.1544848808105622</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03482790870994361</v>
+        <v>0.03541156921884506</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>25</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1139466373.592559</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3243640139.014895</v>
+        <v>3282507877.582703</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1097729786779011</v>
+        <v>0.1229031727874356</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03173120616101047</v>
+        <v>0.03533720335358369</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>34</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1621820046.646685</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3081429009.413535</v>
+        <v>2901318279.454687</v>
       </c>
       <c r="F43" t="n">
-        <v>0.196933673608784</v>
+        <v>0.1411924624277782</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01560795513050081</v>
+        <v>0.01650935097549237</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>32</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1540714494.846187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2016222334.787001</v>
+        <v>1455809647.991189</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07377340860992981</v>
+        <v>0.06694554444587733</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03244607260023555</v>
+        <v>0.03257723476127273</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1008111276.902954</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2043327437.122878</v>
+        <v>1831424495.513101</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1500974989583057</v>
+        <v>0.1341398300689543</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04836290649410609</v>
+        <v>0.05245811532642861</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1021663713.711385</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3681639739.960674</v>
+        <v>3912555164.499773</v>
       </c>
       <c r="F46" t="n">
-        <v>0.121503296509425</v>
+        <v>0.1759292604887266</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05311264182828439</v>
+        <v>0.04039521965678199</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>37</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1840819821.223968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3344515850.615861</v>
+        <v>3444006528.287443</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1988870448618195</v>
+        <v>0.19551457619673</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05770853737339152</v>
+        <v>0.05363984549494455</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>28</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1672257887.221274</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4011473241.0119</v>
+        <v>4730126091.370528</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06895775529561052</v>
+        <v>0.09447749647594754</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02518792585580338</v>
+        <v>0.03326444374450552</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2005736654.136009</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1414691739.799213</v>
+        <v>1309617104.174885</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1662535371146934</v>
+        <v>0.1622954842728545</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03818407309484159</v>
+        <v>0.02966419633965011</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>707345915.1387656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4179717601.470929</v>
+        <v>2663351136.452717</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1337957477504983</v>
+        <v>0.129139357727814</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03437575175558773</v>
+        <v>0.04935518616661659</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>36</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2089858776.569191</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>930431988.8875891</v>
+        <v>1019974413.051995</v>
       </c>
       <c r="F51" t="n">
-        <v>0.170916241592267</v>
+        <v>0.1823506403328263</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03665998028118443</v>
+        <v>0.03598267066885782</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>465216089.6231473</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3759351969.492479</v>
+        <v>4288853228.138989</v>
       </c>
       <c r="F52" t="n">
-        <v>0.100054585884778</v>
+        <v>0.1091870085735748</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05703092714464098</v>
+        <v>0.05407839705436428</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>43</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1879676055.32679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3701195714.158667</v>
+        <v>3328129427.415891</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1997080750594203</v>
+        <v>0.1620405034084601</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03343284597027482</v>
+        <v>0.0295993341712496</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>30</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1850597841.059069</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4223383725.410221</v>
+        <v>3790932607.644344</v>
       </c>
       <c r="F54" t="n">
-        <v>0.146769869025371</v>
+        <v>0.1400973373691346</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05102131115042847</v>
+        <v>0.04150851337889495</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>35</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2111691944.260834</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3808362656.47678</v>
+        <v>3846529283.459041</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1683105229199394</v>
+        <v>0.1673352625495629</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02123462556424339</v>
+        <v>0.02628818071031344</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1904181294.643307</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1485089959.91697</v>
+        <v>1359625981.875671</v>
       </c>
       <c r="F56" t="n">
-        <v>0.127869043764585</v>
+        <v>0.134922162772294</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05423072014900211</v>
+        <v>0.03549008222578187</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>742545024.3745666</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4347070916.510687</v>
+        <v>4166937445.792735</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1598141947016474</v>
+        <v>0.1740587870884711</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02491614204476113</v>
+        <v>0.02236534800619334</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>33</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2173535575.680243</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1381920995.03394</v>
+        <v>1585996374.563515</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1979112946191225</v>
+        <v>0.1933036046435297</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03224083172879865</v>
+        <v>0.02547737234236539</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>690960539.3551766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4932341658.271289</v>
+        <v>3788082837.643099</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1281495500559018</v>
+        <v>0.1206060004264649</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03643181452395661</v>
+        <v>0.0416759934692159</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2466170760.044119</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2946738839.888698</v>
+        <v>3780599688.335129</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1266087746249645</v>
+        <v>0.1248486900335711</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02346023768848665</v>
+        <v>0.02691686304981607</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>33</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1473369484.642289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2597520673.553351</v>
+        <v>2904272133.282595</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1780631421481954</v>
+        <v>0.1579117603046838</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03258832685677577</v>
+        <v>0.02207023798067952</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>37</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1298760355.133203</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1331327369.851745</v>
+        <v>1390167944.592498</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1701177837792724</v>
+        <v>0.1306037507230599</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04355306967586752</v>
+        <v>0.04053288992068365</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>665663642.6043125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4769208954.112514</v>
+        <v>3694212296.775354</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09184613243027585</v>
+        <v>0.08680886420352556</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04441687268692058</v>
+        <v>0.04221342953052326</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>30</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2384604505.053916</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3805187074.590227</v>
+        <v>5315329471.498328</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1812822902031405</v>
+        <v>0.1458454873657184</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03251767439503037</v>
+        <v>0.03240156354203501</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>32</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1902593559.392459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4923901850.605056</v>
+        <v>5276118714.326958</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1380356883608649</v>
+        <v>0.1619104673031801</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0211375479384592</v>
+        <v>0.02667641676606229</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>37</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2461950888.696399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5387910184.484204</v>
+        <v>4134538344.933254</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1378577552831958</v>
+        <v>0.1535113917062419</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04504523974940094</v>
+        <v>0.04017468452290521</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>30</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2693955140.151438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2666681397.484586</v>
+        <v>2393119961.080392</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08647491044092273</v>
+        <v>0.08986519101763796</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04436976993183593</v>
+        <v>0.03908783402872641</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>34</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1333340745.12555</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4713835060.492176</v>
+        <v>4091924015.815813</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1439134533511868</v>
+        <v>0.111766564751369</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04047240082091767</v>
+        <v>0.04413929846240006</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>33</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2356917569.22734</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2267891276.191048</v>
+        <v>2216540143.385726</v>
       </c>
       <c r="F69" t="n">
-        <v>0.16643929033309</v>
+        <v>0.1115433411670621</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04382741739889046</v>
+        <v>0.0467118101250093</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1133945677.611809</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2945445653.122496</v>
+        <v>3182441160.160697</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1024412762745997</v>
+        <v>0.06588109628312763</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04522734525630497</v>
+        <v>0.04675986007677442</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>30</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1472722799.989248</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4219672175.685215</v>
+        <v>5347568387.352886</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1431889953414059</v>
+        <v>0.1154412413935609</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02090350742420076</v>
+        <v>0.02357568250538866</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>38</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2109836135.21245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2102528083.628126</v>
+        <v>1449017263.635387</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08466839014048767</v>
+        <v>0.0752950651497437</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05107129149774626</v>
+        <v>0.05048980837086889</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1051263971.563338</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2548904320.024642</v>
+        <v>3055138083.63836</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08910424330663362</v>
+        <v>0.08659699030060299</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04040695309138529</v>
+        <v>0.0502658534198657</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>40</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1274452197.221102</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3640522616.406858</v>
+        <v>2542561572.318332</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1394736744045343</v>
+        <v>0.1550871890961174</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0242078456938412</v>
+        <v>0.02692809206874231</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>36</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1820261318.183407</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1671386490.315049</v>
+        <v>1596784611.248291</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1518197225063553</v>
+        <v>0.1653510493779296</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0287230258406551</v>
+        <v>0.03459673782568486</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>835693240.1447877</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4853703762.266748</v>
+        <v>3234661349.227</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08191367774835662</v>
+        <v>0.1149916852270689</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03411828146183574</v>
+        <v>0.02958192225236793</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>23</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2426851901.591327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1589940765.312148</v>
+        <v>1623406834.548034</v>
       </c>
       <c r="F77" t="n">
-        <v>0.158542156901322</v>
+        <v>0.1661456932596717</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02609377574010457</v>
+        <v>0.03171391768151376</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>794970383.5283628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3831580612.58597</v>
+        <v>3398825930.092346</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08656282940882616</v>
+        <v>0.1297180132432979</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05211939484090246</v>
+        <v>0.04303360248105353</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>38</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1915790283.989055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1432508700.747046</v>
+        <v>1827809255.503691</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1396370482642657</v>
+        <v>0.1597995123660643</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02451681609229214</v>
+        <v>0.03362462571037631</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>716254372.6831335</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4333038044.051675</v>
+        <v>5494282849.466437</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09965424717247925</v>
+        <v>0.08536879471548128</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03153693693016913</v>
+        <v>0.0371004133441237</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>22</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2166519037.997016</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4279316162.66877</v>
+        <v>4193621739.984285</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09329086704685727</v>
+        <v>0.1306910251700611</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02149324111128348</v>
+        <v>0.02965337394745725</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2139658054.848949</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4804901118.761665</v>
+        <v>3961575141.810138</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1364165812537158</v>
+        <v>0.1604917578378053</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02699627186495997</v>
+        <v>0.02826270247423039</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2402450554.163842</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2191956893.204308</v>
+        <v>2420850495.504538</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1087270443820707</v>
+        <v>0.1228738335255932</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0308616511193904</v>
+        <v>0.04379507673306003</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1095978455.7741</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2246168736.205475</v>
+        <v>1948313548.392853</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1146406783579111</v>
+        <v>0.09452209677424395</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04550485911656343</v>
+        <v>0.04100466613269606</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
         <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1123084336.984778</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2416229536.660077</v>
+        <v>2642986445.206506</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1774760042926942</v>
+        <v>0.1190705776589366</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03620294126614926</v>
+        <v>0.03978835519146922</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>37</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1208114763.967992</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2474859292.35637</v>
+        <v>2620589382.272546</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1310348444706882</v>
+        <v>0.126227562950136</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02135879037987106</v>
+        <v>0.02714551533066612</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1237429739.784906</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1303539855.587257</v>
+        <v>1178892251.432306</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1385078755314567</v>
+        <v>0.1380613948852164</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02957651909272054</v>
+        <v>0.03120949068533064</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>651770009.8572541</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3298964377.802407</v>
+        <v>3601652121.539197</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1101237176840048</v>
+        <v>0.1485130526449566</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0372080230815582</v>
+        <v>0.03519278417039928</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>42</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1649482248.814793</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2570594410.878821</v>
+        <v>2366034979.038766</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1365539215831081</v>
+        <v>0.1277263101403789</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0354312528146494</v>
+        <v>0.02800901047473014</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>35</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1285297274.957327</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1780729248.392808</v>
+        <v>1430440310.56153</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1254244294636186</v>
+        <v>0.1313887283659314</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03442280365852397</v>
+        <v>0.045255962544096</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>890364654.2758138</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1518423819.298182</v>
+        <v>1434574049.929066</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1431694330730161</v>
+        <v>0.1280687692827669</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05080556506513294</v>
+        <v>0.04329764458848245</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>759211946.0304003</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1808322877.340423</v>
+        <v>2255510677.71719</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06689590939399584</v>
+        <v>0.07302058553328192</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03050231903657883</v>
+        <v>0.0467189111825777</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>22</v>
-      </c>
-      <c r="J92" t="n">
-        <v>904161370.3046541</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4300530749.800149</v>
+        <v>4381701970.643938</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1212896377453783</v>
+        <v>0.0921223992283694</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03901310310328005</v>
+        <v>0.03989126268622867</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>32</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2150265356.034219</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2425144312.870603</v>
+        <v>1854899912.032874</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1024476090155173</v>
+        <v>0.1456041705057762</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03419942208490721</v>
+        <v>0.02981337468709355</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1212572210.045619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2429438629.28134</v>
+        <v>3200064008.071975</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09528252544334431</v>
+        <v>0.09986132346140689</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05205119884193148</v>
+        <v>0.04264393716082329</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>25</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1214719355.826236</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2295532027.739985</v>
+        <v>1916584979.851843</v>
       </c>
       <c r="F96" t="n">
-        <v>0.113599712330501</v>
+        <v>0.1178550107734477</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03576900795201488</v>
+        <v>0.03141309104888389</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1147765969.220952</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3790649630.229753</v>
+        <v>4106755665.384582</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1306159905139088</v>
+        <v>0.1547550867700447</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02119707103495468</v>
+        <v>0.01909990951895425</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>33</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1895324854.602823</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2759189461.022059</v>
+        <v>3357567379.61571</v>
       </c>
       <c r="F98" t="n">
-        <v>0.100887763820012</v>
+        <v>0.1188562903026826</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02572626201819229</v>
+        <v>0.02689025752385742</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>28</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1379594698.817114</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2802156703.488079</v>
+        <v>2771773458.654156</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1062408949052602</v>
+        <v>0.127063810325347</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02521924117782641</v>
+        <v>0.02262028405372627</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>33</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1401078323.279122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3855190997.183226</v>
+        <v>4425023969.829071</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1783575528667167</v>
+        <v>0.1399907903198523</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01714450621227398</v>
+        <v>0.02654619878988392</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>32</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1927595557.640999</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2652181461.463408</v>
+        <v>2919348335.487337</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2040351943409491</v>
+        <v>0.1651748439742108</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03538985736186376</v>
+        <v>0.04136940675759281</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>43</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1326090773.763352</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_104.xlsx
+++ b/output/fit_clients/fit_round_104.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1638570092.699064</v>
+        <v>2461277683.520242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08734452008985988</v>
+        <v>0.07371626949803814</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03233387720748949</v>
+        <v>0.03591636611192379</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2270010491.959557</v>
+        <v>2317711285.300613</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1187560606051741</v>
+        <v>0.1316598479100568</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04608369772336408</v>
+        <v>0.03210113359407586</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4532612984.415797</v>
+        <v>4016035202.378059</v>
       </c>
       <c r="F4" t="n">
-        <v>0.155665994361923</v>
+        <v>0.1487622344960776</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03716268786105992</v>
+        <v>0.03647538603915845</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3411576354.16263</v>
+        <v>3698941422.350817</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08350965238573749</v>
+        <v>0.09401715554088777</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03764330429857617</v>
+        <v>0.03835203516288199</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2799431533.808106</v>
+        <v>2551964981.800703</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09289206930721691</v>
+        <v>0.1006040976346855</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03692383608164913</v>
+        <v>0.04861715521441421</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2020605037.351532</v>
+        <v>2436582972.874918</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06230628257113961</v>
+        <v>0.06202795135158989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04904687443330356</v>
+        <v>0.04780618457660512</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2405520243.151183</v>
+        <v>2959980390.316832</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1983249542029509</v>
+        <v>0.1909362182498751</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03203288124129097</v>
+        <v>0.02537607994137822</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1668137938.431652</v>
+        <v>1852462289.00334</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1362115616640605</v>
+        <v>0.1814953510252044</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03678450096177426</v>
+        <v>0.02886079999061941</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4898426450.412227</v>
+        <v>4511209500.535995</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1882036396152781</v>
+        <v>0.1481323131401557</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04214941904106293</v>
+        <v>0.05438484744142735</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3952940660.404672</v>
+        <v>2879665416.338511</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1654915433846057</v>
+        <v>0.1260121273995744</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03102948874746905</v>
+        <v>0.04446488722471219</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2321796848.42329</v>
+        <v>2948036827.488358</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1502280744579549</v>
+        <v>0.1713143171751494</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04130872044730018</v>
+        <v>0.0486950436004927</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3751350567.440302</v>
+        <v>5077049083.242886</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1006100037062811</v>
+        <v>0.0706795550737896</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03044032026652329</v>
+        <v>0.02871772928631148</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3357662013.665696</v>
+        <v>3149193061.206519</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1508869492894301</v>
+        <v>0.1843597530141643</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03594751459480063</v>
+        <v>0.03147502578336121</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1294189399.521126</v>
+        <v>1517242861.633201</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1071534584755782</v>
+        <v>0.1062566984827586</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04090347743364085</v>
+        <v>0.03268488808883029</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1864636759.001107</v>
+        <v>2856207820.072577</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1080383511997228</v>
+        <v>0.1066292970476455</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05097520830603741</v>
+        <v>0.03688182715677217</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4846889923.156082</v>
+        <v>4943954700.025246</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1751782167093145</v>
+        <v>0.1622978451538582</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04382146173141353</v>
+        <v>0.04764159262986329</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2509902264.130177</v>
+        <v>3501071579.936645</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1660904554441412</v>
+        <v>0.1504882572579402</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02616471364986325</v>
+        <v>0.02241453967647408</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1005897739.410882</v>
+        <v>854029761.6542271</v>
       </c>
       <c r="F19" t="n">
-        <v>0.134273992311675</v>
+        <v>0.1204209933289125</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01891294240076947</v>
+        <v>0.02596015845150498</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1738583292.862707</v>
+        <v>1974848647.976048</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1586386774910195</v>
+        <v>0.1144101671299506</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02148055929947605</v>
+        <v>0.02951061905983993</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2445119720.638659</v>
+        <v>2610273946.084399</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09224624097353717</v>
+        <v>0.08767182544444065</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04371987105073447</v>
+        <v>0.03401177893504401</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2539499339.869778</v>
+        <v>3436329376.604173</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1387423125257592</v>
+        <v>0.1195574590789334</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04387609124289043</v>
+        <v>0.04947800765280775</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1174479624.813851</v>
+        <v>1451124672.793815</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1708039633150367</v>
+        <v>0.1621256154908684</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05075805656540501</v>
+        <v>0.04715093221808565</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2661533400.341694</v>
+        <v>2863456017.543116</v>
       </c>
       <c r="F24" t="n">
-        <v>0.128886507570088</v>
+        <v>0.1070339430007597</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03088853599727397</v>
+        <v>0.03134266027646634</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1449125142.57007</v>
+        <v>919436479.7255844</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0770327955920778</v>
+        <v>0.09625073776004656</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01879151357194808</v>
+        <v>0.02095141241238504</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1065462568.499382</v>
+        <v>1386897281.833098</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1209951379009456</v>
+        <v>0.09988028131031122</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02437478873004448</v>
+        <v>0.0318264415246509</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3092719598.44612</v>
+        <v>4413660125.317505</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1072300493048272</v>
+        <v>0.1533428838598072</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01829990831241305</v>
+        <v>0.01789428242767327</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2609312578.731591</v>
+        <v>2791591264.541753</v>
       </c>
       <c r="F28" t="n">
-        <v>0.110968440124807</v>
+        <v>0.1109672413512971</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04988558648436506</v>
+        <v>0.04173951949882519</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5541503416.494694</v>
+        <v>4781945332.148129</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1201021910200114</v>
+        <v>0.1047986946064775</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03930096222422163</v>
+        <v>0.03869640773993482</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2238194003.389237</v>
+        <v>2024101980.108424</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1397183043122243</v>
+        <v>0.1385609592453577</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03124523583365269</v>
+        <v>0.02707524207299379</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1166103187.178943</v>
+        <v>1504568104.803817</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09924677808524192</v>
+        <v>0.1039541118968115</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04671684447276238</v>
+        <v>0.04446205167494581</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1489652242.307994</v>
+        <v>1348070847.217832</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1198220813207158</v>
+        <v>0.08722089903731337</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03220261994411566</v>
+        <v>0.02437092527611752</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2669794194.489499</v>
+        <v>2425110478.260379</v>
       </c>
       <c r="F33" t="n">
-        <v>0.149110517876272</v>
+        <v>0.1999732253211287</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04620609973879181</v>
+        <v>0.0460215738409869</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1213263473.586418</v>
+        <v>1124274450.295043</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1151760850834379</v>
+        <v>0.09911884985503439</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02697245524368373</v>
+        <v>0.02236717853085128</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>885873942.4294875</v>
+        <v>1262269180.806152</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1132201036574337</v>
+        <v>0.1112382443320492</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04019148989600763</v>
+        <v>0.0429058873188392</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3054792694.432564</v>
+        <v>3251908003.899161</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1407121169132878</v>
+        <v>0.1585745959308681</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01838062498134153</v>
+        <v>0.02896923635424224</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2064006114.727571</v>
+        <v>2627418410.912194</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09750027432706568</v>
+        <v>0.0832415413921563</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02746133139348588</v>
+        <v>0.03457962727515201</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1524463137.361614</v>
+        <v>2112437126.928997</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09162117857909972</v>
+        <v>0.1073703764714797</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02869325439900725</v>
+        <v>0.03096594642299809</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1988030528.412326</v>
+        <v>1974587313.211867</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1283482780437859</v>
+        <v>0.1858913525719016</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02292802945334646</v>
+        <v>0.02320335746045518</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1817853792.024153</v>
+        <v>1501462082.890356</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1547347342978163</v>
+        <v>0.1239708318815796</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04386043708741579</v>
+        <v>0.03638162854655832</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2017775731.791286</v>
+        <v>2670207678.676916</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1544848808105622</v>
+        <v>0.1532456126538157</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03541156921884506</v>
+        <v>0.03715007297503953</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3282507877.582703</v>
+        <v>3460267641.139</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1229031727874356</v>
+        <v>0.09101346615854848</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03533720335358369</v>
+        <v>0.02909728778817513</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2901318279.454687</v>
+        <v>3034330461.347396</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1411924624277782</v>
+        <v>0.1902916317325274</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01650935097549237</v>
+        <v>0.01644341612450902</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1455809647.991189</v>
+        <v>2072771115.874835</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06694554444587733</v>
+        <v>0.07486319368544725</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03257723476127273</v>
+        <v>0.02762000559423714</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1831424495.513101</v>
+        <v>1646000968.164994</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1341398300689543</v>
+        <v>0.1172232470760412</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05245811532642861</v>
+        <v>0.04210093410076528</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3912555164.499773</v>
+        <v>5072099697.232074</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1759292604887266</v>
+        <v>0.126765127128661</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04039521965678199</v>
+        <v>0.05699964125107527</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3444006528.287443</v>
+        <v>4119036016.556053</v>
       </c>
       <c r="F47" t="n">
-        <v>0.19551457619673</v>
+        <v>0.1886706135960687</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05363984549494455</v>
+        <v>0.04194665136966243</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4730126091.370528</v>
+        <v>4404191353.585581</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09447749647594754</v>
+        <v>0.07085306107253825</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03326444374450552</v>
+        <v>0.02383924583686621</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1309617104.174885</v>
+        <v>1960447455.687724</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1622954842728545</v>
+        <v>0.1698287731056881</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02966419633965011</v>
+        <v>0.02771373719574914</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2663351136.452717</v>
+        <v>3109101751.163238</v>
       </c>
       <c r="F50" t="n">
-        <v>0.129139357727814</v>
+        <v>0.1614180613807324</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04935518616661659</v>
+        <v>0.04357782301491736</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1019974413.051995</v>
+        <v>1259183521.13222</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1823506403328263</v>
+        <v>0.1494561411518443</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03598267066885782</v>
+        <v>0.04833896039839648</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4288853228.138989</v>
+        <v>4208308219.152184</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1091870085735748</v>
+        <v>0.1336880636196734</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05407839705436428</v>
+        <v>0.04199029663121644</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3328129427.415891</v>
+        <v>3351020283.10413</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1620405034084601</v>
+        <v>0.13350180463559</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0295993341712496</v>
+        <v>0.02848005233012976</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3790932607.644344</v>
+        <v>4868305889.013516</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1400973373691346</v>
+        <v>0.1042716413335602</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04150851337889495</v>
+        <v>0.04500774117421712</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3846529283.459041</v>
+        <v>3126881761.286098</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1673352625495629</v>
+        <v>0.1732832821391661</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02628818071031344</v>
+        <v>0.03139728932313933</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1359625981.875671</v>
+        <v>1636962608.623655</v>
       </c>
       <c r="F56" t="n">
-        <v>0.134922162772294</v>
+        <v>0.1213682815871372</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03549008222578187</v>
+        <v>0.03661180326758748</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4166937445.792735</v>
+        <v>4328703510.552366</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1740587870884711</v>
+        <v>0.1496291726675795</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02236534800619334</v>
+        <v>0.02682726860071763</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1585996374.563515</v>
+        <v>1286253829.832313</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1933036046435297</v>
+        <v>0.1999915511426616</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02547737234236539</v>
+        <v>0.03967311222979852</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3788082837.643099</v>
+        <v>4962417197.438348</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1206060004264649</v>
+        <v>0.1132911469737136</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0416759934692159</v>
+        <v>0.0436730500795451</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3780599688.335129</v>
+        <v>2897432959.623765</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1248486900335711</v>
+        <v>0.1265777290350732</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02691686304981607</v>
+        <v>0.02815292704904815</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2904272133.282595</v>
+        <v>2912996645.732148</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1579117603046838</v>
+        <v>0.1663524811598616</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02207023798067952</v>
+        <v>0.03029019361322547</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1390167944.592498</v>
+        <v>1690523834.822496</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1306037507230599</v>
+        <v>0.1773863418332878</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04053288992068365</v>
+        <v>0.04856451907711479</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3694212296.775354</v>
+        <v>5142311078.438189</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08680886420352556</v>
+        <v>0.08941975578724125</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04221342953052326</v>
+        <v>0.03843404116528109</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5315329471.498328</v>
+        <v>3416911551.088868</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1458454873657184</v>
+        <v>0.1174970997807468</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03240156354203501</v>
+        <v>0.034830607542712</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5276118714.326958</v>
+        <v>4242068643.621651</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1619104673031801</v>
+        <v>0.1049945498315176</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02667641676606229</v>
+        <v>0.03151606510410905</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4134538344.933254</v>
+        <v>4810186395.79673</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1535113917062419</v>
+        <v>0.1119683379458317</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04017468452290521</v>
+        <v>0.04396805635779179</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2393119961.080392</v>
+        <v>3393382355.055605</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08986519101763796</v>
+        <v>0.09588876464050262</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03908783402872641</v>
+        <v>0.03340414952301522</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4091924015.815813</v>
+        <v>5754967849.77611</v>
       </c>
       <c r="F68" t="n">
-        <v>0.111766564751369</v>
+        <v>0.1428549436477065</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04413929846240006</v>
+        <v>0.04538938170092698</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2216540143.385726</v>
+        <v>1775661273.214024</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1115433411670621</v>
+        <v>0.16048644788453</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0467118101250093</v>
+        <v>0.04014459037410641</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3182441160.160697</v>
+        <v>2444250752.504606</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06588109628312763</v>
+        <v>0.09201346797518013</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04675986007677442</v>
+        <v>0.03151666613044131</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5347568387.352886</v>
+        <v>4153059500.572823</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1154412413935609</v>
+        <v>0.1738360895240038</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02357568250538866</v>
+        <v>0.03102495047175484</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1449017263.635387</v>
+        <v>1519020675.233763</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0752950651497437</v>
+        <v>0.07607179335682913</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05048980837086889</v>
+        <v>0.04935019934684209</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3055138083.63836</v>
+        <v>3418040852.074965</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08659699030060299</v>
+        <v>0.07848714729715363</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0502658534198657</v>
+        <v>0.0518206251793676</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2542561572.318332</v>
+        <v>4010490022.9613</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1550871890961174</v>
+        <v>0.1635596865481717</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02692809206874231</v>
+        <v>0.03303101468423008</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1596784611.248291</v>
+        <v>2088228334.682451</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1653510493779296</v>
+        <v>0.1151740398074077</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03459673782568486</v>
+        <v>0.02373231937917501</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3234661349.227</v>
+        <v>4873390322.066004</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1149916852270689</v>
+        <v>0.07988870721346995</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02958192225236793</v>
+        <v>0.03120497721557048</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1623406834.548034</v>
+        <v>1746206356.340338</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1661456932596717</v>
+        <v>0.1148707011070517</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03171391768151376</v>
+        <v>0.0305616717422122</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3398825930.092346</v>
+        <v>4336985647.532214</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1297180132432979</v>
+        <v>0.1357954394100486</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04303360248105353</v>
+        <v>0.05457892611472297</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1827809255.503691</v>
+        <v>1423872357.797001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1597995123660643</v>
+        <v>0.1738661894720522</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03362462571037631</v>
+        <v>0.02814740603353511</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5494282849.466437</v>
+        <v>5491802628.326865</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08536879471548128</v>
+        <v>0.07407364020819171</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0371004133441237</v>
+        <v>0.02868278357008036</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4193621739.984285</v>
+        <v>3778746451.773513</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1306910251700611</v>
+        <v>0.1189984469586574</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02965337394745725</v>
+        <v>0.02510166151835181</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3961575141.810138</v>
+        <v>4400657010.958687</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1604917578378053</v>
+        <v>0.1406813917957892</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02826270247423039</v>
+        <v>0.02797413200470235</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2420850495.504538</v>
+        <v>1887553065.574359</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1228738335255932</v>
+        <v>0.1065276422264533</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04379507673306003</v>
+        <v>0.02845413314837963</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1948313548.392853</v>
+        <v>2590300755.940517</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09452209677424395</v>
+        <v>0.1035080140157525</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04100466613269606</v>
+        <v>0.03277849235362124</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2642986445.206506</v>
+        <v>3042076882.024595</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1190705776589366</v>
+        <v>0.1496780037580521</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03978835519146922</v>
+        <v>0.03639471873980531</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2620589382.272546</v>
+        <v>2248353783.800854</v>
       </c>
       <c r="F86" t="n">
-        <v>0.126227562950136</v>
+        <v>0.111632016306355</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02714551533066612</v>
+        <v>0.02077956745435212</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1178892251.432306</v>
+        <v>1479895526.983536</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1380613948852164</v>
+        <v>0.118449453311561</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03120949068533064</v>
+        <v>0.03239639015930149</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3601652121.539197</v>
+        <v>2479927137.601612</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1485130526449566</v>
+        <v>0.1387425027722841</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03519278417039928</v>
+        <v>0.03802716872564553</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2366034979.038766</v>
+        <v>3149827054.614143</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1277263101403789</v>
+        <v>0.1093173993770148</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02800901047473014</v>
+        <v>0.02532659878044347</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1430440310.56153</v>
+        <v>1502212042.102977</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1313887283659314</v>
+        <v>0.1303087179245441</v>
       </c>
       <c r="G90" t="n">
-        <v>0.045255962544096</v>
+        <v>0.05261916899879123</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1434574049.929066</v>
+        <v>2056573456.302948</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1280687692827669</v>
+        <v>0.1367644131839647</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04329764458848245</v>
+        <v>0.04431010860662819</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2255510677.71719</v>
+        <v>2183295214.505692</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07302058553328192</v>
+        <v>0.07981849377388756</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0467189111825777</v>
+        <v>0.04565468245972836</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4381701970.643938</v>
+        <v>3902460980.970787</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0921223992283694</v>
+        <v>0.1262281520738074</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03989126268622867</v>
+        <v>0.03548846342975254</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1854899912.032874</v>
+        <v>2482173695.304924</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1456041705057762</v>
+        <v>0.1201926193328466</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02981337468709355</v>
+        <v>0.03617365907302387</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3200064008.071975</v>
+        <v>2420596889.842983</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09986132346140689</v>
+        <v>0.132185149467566</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04264393716082329</v>
+        <v>0.04398009412479619</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1916584979.851843</v>
+        <v>2127948553.320772</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1178550107734477</v>
+        <v>0.1206770675127252</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03141309104888389</v>
+        <v>0.0357442100274449</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4106755665.384582</v>
+        <v>4955224603.602276</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1547550867700447</v>
+        <v>0.1485308918813274</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01909990951895425</v>
+        <v>0.02232398791024301</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3357567379.61571</v>
+        <v>3016001412.659286</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1188562903026826</v>
+        <v>0.11507274027303</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02689025752385742</v>
+        <v>0.02249212627651198</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2771773458.654156</v>
+        <v>2627384238.744829</v>
       </c>
       <c r="F99" t="n">
-        <v>0.127063810325347</v>
+        <v>0.1171645764166132</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02262028405372627</v>
+        <v>0.02725785373980846</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4425023969.829071</v>
+        <v>4558859314.995674</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1399907903198523</v>
+        <v>0.1595117338224915</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02654619878988392</v>
+        <v>0.01735794877164705</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2919348335.487337</v>
+        <v>3334033288.491915</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1651748439742108</v>
+        <v>0.1977986115266543</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04136940675759281</v>
+        <v>0.04744903554747194</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_104.xlsx
+++ b/output/fit_clients/fit_round_104.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2461277683.520242</v>
+        <v>1679778506.803557</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07371626949803814</v>
+        <v>0.07253983058148519</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03591636611192379</v>
+        <v>0.03427036521513358</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2317711285.300613</v>
+        <v>1808212399.371084</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1316598479100568</v>
+        <v>0.1175438167327413</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03210113359407586</v>
+        <v>0.04059727742658133</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4016035202.378059</v>
+        <v>3804271508.774499</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1487622344960776</v>
+        <v>0.115465735897383</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03647538603915845</v>
+        <v>0.03453116917974301</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>64</v>
+      </c>
+      <c r="J4" t="n">
+        <v>104</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3698941422.350817</v>
+        <v>4099948618.566393</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09401715554088777</v>
+        <v>0.0761717554012734</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03835203516288199</v>
+        <v>0.04444218610240395</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>44</v>
+      </c>
+      <c r="J5" t="n">
+        <v>104</v>
+      </c>
+      <c r="K5" t="n">
+        <v>177.6714068531568</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2551964981.800703</v>
+        <v>2824526850.018048</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1006040976346855</v>
+        <v>0.1131248718078555</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04861715521441421</v>
+        <v>0.05382278073223906</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2436582972.874918</v>
+        <v>2804179776.436983</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06202795135158989</v>
+        <v>0.07136555250023612</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04780618457660512</v>
+        <v>0.04875260264697875</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2959980390.316832</v>
+        <v>2523319522.525139</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1909362182498751</v>
+        <v>0.2173186918848169</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02537607994137822</v>
+        <v>0.03223630541540622</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29</v>
+      </c>
+      <c r="J8" t="n">
+        <v>103</v>
+      </c>
+      <c r="K8" t="n">
+        <v>61.50080141379724</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1852462289.00334</v>
+        <v>1885063689.111096</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1814953510252044</v>
+        <v>0.1524753718644023</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02886079999061941</v>
+        <v>0.02358060688417787</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4511209500.535995</v>
+        <v>4918644891.969736</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1481323131401557</v>
+        <v>0.1923294230307357</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05438484744142735</v>
+        <v>0.0446301586145104</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>96</v>
+      </c>
+      <c r="J10" t="n">
+        <v>104</v>
+      </c>
+      <c r="K10" t="n">
+        <v>177.3289410762214</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2879665416.338511</v>
+        <v>2888788939.836618</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1260121273995744</v>
+        <v>0.1734961114390109</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04446488722471219</v>
+        <v>0.04296856083400893</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>44</v>
+      </c>
+      <c r="J11" t="n">
+        <v>102</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2948036827.488358</v>
+        <v>2670085637.603274</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1713143171751494</v>
+        <v>0.1980538313378019</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0486950436004927</v>
+        <v>0.03380228932739217</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5077049083.242886</v>
+        <v>4065316865.36178</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0706795550737896</v>
+        <v>0.07416221451813089</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02871772928631148</v>
+        <v>0.02925603712655887</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>52</v>
+      </c>
+      <c r="J13" t="n">
+        <v>103</v>
+      </c>
+      <c r="K13" t="n">
+        <v>153.7196222896946</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3149193061.206519</v>
+        <v>3668802360.601337</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1843597530141643</v>
+        <v>0.164846491559355</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03147502578336121</v>
+        <v>0.04057779383569832</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" t="n">
+        <v>104</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1517242861.633201</v>
+        <v>1729058598.686884</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1062566984827586</v>
+        <v>0.08007030415040176</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03268488808883029</v>
+        <v>0.04294021381008901</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2856207820.072577</v>
+        <v>2395292745.76719</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1066292970476455</v>
+        <v>0.09232608220725713</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03688182715677217</v>
+        <v>0.03435208999502203</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4943954700.025246</v>
+        <v>5050967848.9491</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1622978451538582</v>
+        <v>0.1403788926574522</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04764159262986329</v>
+        <v>0.03306017386818744</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" t="n">
+        <v>103</v>
+      </c>
+      <c r="K17" t="n">
+        <v>141.3967300831034</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1071,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3501071579.936645</v>
+        <v>2651502876.396872</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1504882572579402</v>
+        <v>0.1827092100067962</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02241453967647408</v>
+        <v>0.03451899204528409</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>27</v>
+      </c>
+      <c r="J18" t="n">
+        <v>101</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>854029761.6542271</v>
+        <v>1030633401.748653</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1204209933289125</v>
+        <v>0.1256929603571977</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02596015845150498</v>
+        <v>0.02096175273017333</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1974848647.976048</v>
+        <v>2553060147.866397</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1144101671299506</v>
+        <v>0.1211939386714402</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02951061905983993</v>
+        <v>0.02898240919578351</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2610273946.084399</v>
+        <v>1818263592.2163</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08767182544444065</v>
+        <v>0.07659346441632066</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03401177893504401</v>
+        <v>0.03067099699206811</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3436329376.604173</v>
+        <v>3471312491.877923</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1195574590789334</v>
+        <v>0.1354069809589681</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04947800765280775</v>
+        <v>0.03792831793652518</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>26</v>
+      </c>
+      <c r="J22" t="n">
+        <v>103</v>
+      </c>
+      <c r="K22" t="n">
+        <v>106.2244814550386</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1451124672.793815</v>
+        <v>1256663573.553125</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1621256154908684</v>
+        <v>0.1412331280365322</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04715093221808565</v>
+        <v>0.04730291533933359</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2863456017.543116</v>
+        <v>3754574914.86873</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1070339430007597</v>
+        <v>0.1453216769991409</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03134266027646634</v>
+        <v>0.03511776436650305</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>30</v>
+      </c>
+      <c r="J24" t="n">
+        <v>104</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>919436479.7255844</v>
+        <v>1072958178.377567</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09625073776004656</v>
+        <v>0.1039635469056467</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02095141241238504</v>
+        <v>0.02496132251610349</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1386897281.833098</v>
+        <v>1309802055.75145</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09988028131031122</v>
+        <v>0.1040500720495263</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0318264415246509</v>
+        <v>0.03127729233843065</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1388,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4413660125.317505</v>
+        <v>3012293864.237439</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1533428838598072</v>
+        <v>0.1288098052946197</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01789428242767327</v>
+        <v>0.02065151498581007</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>41</v>
+      </c>
+      <c r="J27" t="n">
+        <v>103</v>
+      </c>
+      <c r="K27" t="n">
+        <v>73.26863976587794</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2791591264.541753</v>
+        <v>3600292936.928604</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1109672413512971</v>
+        <v>0.1393637830189538</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04173951949882519</v>
+        <v>0.04322407662589099</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4781945332.148129</v>
+        <v>5480509728.346951</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1047986946064775</v>
+        <v>0.1213345935932921</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03869640773993482</v>
+        <v>0.03787761768282832</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>97</v>
+      </c>
+      <c r="J29" t="n">
+        <v>104</v>
+      </c>
+      <c r="K29" t="n">
+        <v>188.3951406666147</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2024101980.108424</v>
+        <v>2131849732.807821</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1385609592453577</v>
+        <v>0.1021191097952592</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02707524207299379</v>
+        <v>0.02439387034844227</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1504568104.803817</v>
+        <v>1175955791.8809</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1039541118968115</v>
+        <v>0.06829475364758245</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04446205167494581</v>
+        <v>0.03620065878703312</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1348070847.217832</v>
+        <v>1352093030.431898</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08722089903731337</v>
+        <v>0.09671597226684323</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02437092527611752</v>
+        <v>0.02526628571691186</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2425110478.260379</v>
+        <v>3121766332.86904</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1999732253211287</v>
+        <v>0.197938956899126</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0460215738409869</v>
+        <v>0.04589640996230623</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1124274450.295043</v>
+        <v>1300270873.388201</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09911884985503439</v>
+        <v>0.1145085343110116</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02236717853085128</v>
+        <v>0.02376554589954856</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1262269180.806152</v>
+        <v>982893713.5218097</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1112382443320492</v>
+        <v>0.1012054287411047</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0429058873188392</v>
+        <v>0.02922110153287053</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3251908003.899161</v>
+        <v>2059976829.408701</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1585745959308681</v>
+        <v>0.1307332443106973</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02896923635424224</v>
+        <v>0.02229917478237355</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2627418410.912194</v>
+        <v>1945778004.434204</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0832415413921563</v>
+        <v>0.09053951330347444</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03457962727515201</v>
+        <v>0.03330456125918689</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2112437126.928997</v>
+        <v>2090040326.134688</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1073703764714797</v>
+        <v>0.1221566307447346</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03096594642299809</v>
+        <v>0.02766540399251294</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1974587313.211867</v>
+        <v>1758982198.564515</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1858913525719016</v>
+        <v>0.141484340613354</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02320335746045518</v>
+        <v>0.02756377418968423</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1501462082.890356</v>
+        <v>1609276373.5959</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1239708318815796</v>
+        <v>0.1359862173129227</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03638162854655832</v>
+        <v>0.05710253561435333</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2670207678.676916</v>
+        <v>1944582284.111515</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1532456126538157</v>
+        <v>0.1183935259250573</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03715007297503953</v>
+        <v>0.04073418667806611</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3460267641.139</v>
+        <v>4222747752.730089</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09101346615854848</v>
+        <v>0.09496056621080579</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02909728778817513</v>
+        <v>0.04622980640377618</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>39</v>
+      </c>
+      <c r="J42" t="n">
+        <v>104</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3034330461.347396</v>
+        <v>2163826045.966468</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1902916317325274</v>
+        <v>0.1398128874263306</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01644341612450902</v>
+        <v>0.01939984753100545</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2072771115.874835</v>
+        <v>1995944805.951054</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07486319368544725</v>
+        <v>0.07592134228707401</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02762000559423714</v>
+        <v>0.03299223005240139</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1646000968.164994</v>
+        <v>1557417976.253433</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1172232470760412</v>
+        <v>0.1238592028053843</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04210093410076528</v>
+        <v>0.04963524960046255</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5072099697.232074</v>
+        <v>4532172503.806303</v>
       </c>
       <c r="F46" t="n">
-        <v>0.126765127128661</v>
+        <v>0.1654691804724042</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05699964125107527</v>
+        <v>0.03919989795413276</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>59</v>
+      </c>
+      <c r="J46" t="n">
+        <v>104</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4119036016.556053</v>
+        <v>4551853799.294456</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1886706135960687</v>
+        <v>0.1744769967781187</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04194665136966243</v>
+        <v>0.05642938059696804</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>45</v>
+      </c>
+      <c r="J47" t="n">
+        <v>104</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4404191353.585581</v>
+        <v>2844647158.085611</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07085306107253825</v>
+        <v>0.09112733395611082</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02383924583686621</v>
+        <v>0.03649255066656747</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>38</v>
+      </c>
+      <c r="J48" t="n">
+        <v>102</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1960447455.687724</v>
+        <v>1642277835.171322</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1698287731056881</v>
+        <v>0.1833043657427266</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02771373719574914</v>
+        <v>0.03650625357892519</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3109101751.163238</v>
+        <v>3846705749.046026</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1614180613807324</v>
+        <v>0.1405571874940646</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04357782301491736</v>
+        <v>0.04112660019045677</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>37</v>
+      </c>
+      <c r="J50" t="n">
+        <v>103</v>
+      </c>
+      <c r="K50" t="n">
+        <v>142.5776861409736</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1259183521.13222</v>
+        <v>1121609506.273641</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1494561411518443</v>
+        <v>0.1884811454457758</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04833896039839648</v>
+        <v>0.04813020219672324</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4208308219.152184</v>
+        <v>5012892434.002958</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1336880636196734</v>
+        <v>0.1002943419408154</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04199029663121644</v>
+        <v>0.04998422168624162</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>80</v>
+      </c>
+      <c r="J52" t="n">
+        <v>104</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3351020283.10413</v>
+        <v>2644427190.512717</v>
       </c>
       <c r="F53" t="n">
-        <v>0.13350180463559</v>
+        <v>0.1291921555970182</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02848005233012976</v>
+        <v>0.03153423403232446</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4868305889.013516</v>
+        <v>4404257271.149927</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1042716413335602</v>
+        <v>0.15504696092617</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04500774117421712</v>
+        <v>0.04698777294094363</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>47</v>
+      </c>
+      <c r="J54" t="n">
+        <v>103</v>
+      </c>
+      <c r="K54" t="n">
+        <v>159.6225163168709</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3126881761.286098</v>
+        <v>3678763202.208593</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1732832821391661</v>
+        <v>0.1969493744125007</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03139728932313933</v>
+        <v>0.02793172898934515</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>47</v>
+      </c>
+      <c r="J55" t="n">
+        <v>104</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1636962608.623655</v>
+        <v>1694992326.777817</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1213682815871372</v>
+        <v>0.1177390674704827</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03661180326758748</v>
+        <v>0.04185033683008264</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4328703510.552366</v>
+        <v>3891594570.750477</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1496291726675795</v>
+        <v>0.1847756055149421</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02682726860071763</v>
+        <v>0.02391313043861426</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>40</v>
+      </c>
+      <c r="J57" t="n">
+        <v>103</v>
+      </c>
+      <c r="K57" t="n">
+        <v>138.110041320245</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1286253829.832313</v>
+        <v>1910411865.365185</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1999915511426616</v>
+        <v>0.188391800439666</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03967311222979852</v>
+        <v>0.02644761899810896</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4962417197.438348</v>
+        <v>4962428229.354356</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1132911469737136</v>
+        <v>0.1139580495191661</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0436730500795451</v>
+        <v>0.03755865701616837</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>50</v>
+      </c>
+      <c r="J59" t="n">
+        <v>104</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2897432959.623765</v>
+        <v>2556377774.659588</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1265777290350732</v>
+        <v>0.1349164477377425</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02815292704904815</v>
+        <v>0.02880098802544779</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>97</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2912996645.732148</v>
+        <v>2254116226.707156</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1663524811598616</v>
+        <v>0.1162700246414116</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03029019361322547</v>
+        <v>0.02219972573842892</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1690523834.822496</v>
+        <v>1887978173.100985</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1773863418332878</v>
+        <v>0.1262041067465219</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04856451907711479</v>
+        <v>0.03050937232463928</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5142311078.438189</v>
+        <v>4413521342.846574</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08941975578724125</v>
+        <v>0.08504468332098186</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03843404116528109</v>
+        <v>0.03324046649309281</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>51</v>
+      </c>
+      <c r="J63" t="n">
+        <v>104</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3416911551.088868</v>
+        <v>4554932670.295174</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1174970997807468</v>
+        <v>0.1479402939399039</v>
       </c>
       <c r="G64" t="n">
-        <v>0.034830607542712</v>
+        <v>0.02875496710551277</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>51</v>
+      </c>
+      <c r="J64" t="n">
+        <v>104</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4242068643.621651</v>
+        <v>5053086969.705145</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1049945498315176</v>
+        <v>0.1577418503078605</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03151606510410905</v>
+        <v>0.02235580831659997</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>85</v>
+      </c>
+      <c r="J65" t="n">
+        <v>104</v>
+      </c>
+      <c r="K65" t="n">
+        <v>165.6996098940459</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4810186395.79673</v>
+        <v>4704195616.745682</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1119683379458317</v>
+        <v>0.1457261041172611</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04396805635779179</v>
+        <v>0.03085649248034895</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>51</v>
+      </c>
+      <c r="J66" t="n">
+        <v>103</v>
+      </c>
+      <c r="K66" t="n">
+        <v>149.699674062906</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3393382355.055605</v>
+        <v>2617064564.100375</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09588876464050262</v>
+        <v>0.09866420785395412</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03340414952301522</v>
+        <v>0.04751939802937498</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5754967849.77611</v>
+        <v>5341718689.100913</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1428549436477065</v>
+        <v>0.1476846657432936</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04538938170092698</v>
+        <v>0.05175085284148534</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>52</v>
+      </c>
+      <c r="J68" t="n">
+        <v>103</v>
+      </c>
+      <c r="K68" t="n">
+        <v>151.0445409345941</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1775661273.214024</v>
+        <v>1924567160.410304</v>
       </c>
       <c r="F69" t="n">
-        <v>0.16048644788453</v>
+        <v>0.1789709198735708</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04014459037410641</v>
+        <v>0.0563004912665769</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2444250752.504606</v>
+        <v>3330898201.500801</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09201346797518013</v>
+        <v>0.0717620310262575</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03151666613044131</v>
+        <v>0.04392552039986554</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>95</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4153059500.572823</v>
+        <v>3699016661.294433</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1738360895240038</v>
+        <v>0.1436659353226319</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03102495047175484</v>
+        <v>0.02754601317315642</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>84</v>
+      </c>
+      <c r="J71" t="n">
+        <v>104</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1519020675.233763</v>
+        <v>1876791925.103208</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07607179335682913</v>
+        <v>0.1021029277146961</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04935019934684209</v>
+        <v>0.0474412498836586</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3418040852.074965</v>
+        <v>2952689422.493243</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07848714729715363</v>
+        <v>0.1047962390563498</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0518206251793676</v>
+        <v>0.04898286173631278</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4010490022.9613</v>
+        <v>3621971904.002001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1635596865481717</v>
+        <v>0.1384208711531382</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03303101468423008</v>
+        <v>0.02305366687641567</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>34</v>
+      </c>
+      <c r="J74" t="n">
+        <v>104</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2088228334.682451</v>
+        <v>2298904923.761317</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1151740398074077</v>
+        <v>0.1189600874778003</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02373231937917501</v>
+        <v>0.02884400235379806</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4873390322.066004</v>
+        <v>3579750126.597824</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07988870721346995</v>
+        <v>0.0789272915097422</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03120497721557048</v>
+        <v>0.03091614121760417</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>48</v>
+      </c>
+      <c r="J76" t="n">
+        <v>103</v>
+      </c>
+      <c r="K76" t="n">
+        <v>101.7317697395112</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1746206356.340338</v>
+        <v>1820952043.637526</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1148707011070517</v>
+        <v>0.1278128259955888</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0305616717422122</v>
+        <v>0.02906983846473568</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4336985647.532214</v>
+        <v>4059603159.362976</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1357954394100486</v>
+        <v>0.1143888499994093</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05457892611472297</v>
+        <v>0.04614108078090662</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>52</v>
+      </c>
+      <c r="J78" t="n">
+        <v>104</v>
+      </c>
+      <c r="K78" t="n">
+        <v>166.365771912004</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1423872357.797001</v>
+        <v>1883971587.915876</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1738661894720522</v>
+        <v>0.1179180217821314</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02814740603353511</v>
+        <v>0.02674071731195684</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5491802628.326865</v>
+        <v>5504253007.773107</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07407364020819171</v>
+        <v>0.103658552896508</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02868278357008036</v>
+        <v>0.02422660398114888</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>50</v>
+      </c>
+      <c r="J80" t="n">
+        <v>103</v>
+      </c>
+      <c r="K80" t="n">
+        <v>121.1895803879606</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3778746451.773513</v>
+        <v>3531761861.505589</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1189984469586574</v>
+        <v>0.1160549794800699</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02510166151835181</v>
+        <v>0.02576253142635798</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>47</v>
+      </c>
+      <c r="J81" t="n">
+        <v>102</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4400657010.958687</v>
+        <v>3423487976.795829</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1406813917957892</v>
+        <v>0.1446728511745548</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02797413200470235</v>
+        <v>0.02727947607261532</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>69</v>
+      </c>
+      <c r="J82" t="n">
+        <v>103</v>
+      </c>
+      <c r="K82" t="n">
+        <v>119.9219148729885</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1887553065.574359</v>
+        <v>1986815720.886823</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1065276422264533</v>
+        <v>0.109652625775217</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02845413314837963</v>
+        <v>0.02915306188034992</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2590300755.940517</v>
+        <v>1804819579.508659</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1035080140157525</v>
+        <v>0.1008313352393008</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03277849235362124</v>
+        <v>0.03198769196649583</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3042076882.024595</v>
+        <v>2657345063.347071</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1496780037580521</v>
+        <v>0.1480848245547288</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03639471873980531</v>
+        <v>0.03654134568824036</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>18</v>
+      </c>
+      <c r="J85" t="n">
+        <v>100</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2248353783.800854</v>
+        <v>2483544574.285019</v>
       </c>
       <c r="F86" t="n">
-        <v>0.111632016306355</v>
+        <v>0.1196543970083457</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02077956745435212</v>
+        <v>0.01950234625187353</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1479895526.983536</v>
+        <v>937956708.5277828</v>
       </c>
       <c r="F87" t="n">
-        <v>0.118449453311561</v>
+        <v>0.1463324172220778</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03239639015930149</v>
+        <v>0.03121731556912449</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2479927137.601612</v>
+        <v>2691749680.035192</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1387425027722841</v>
+        <v>0.1335989687829246</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03802716872564553</v>
+        <v>0.02931952566153727</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>16</v>
+      </c>
+      <c r="J88" t="n">
+        <v>98</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3149827054.614143</v>
+        <v>3384674586.812812</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1093173993770148</v>
+        <v>0.1434490502581588</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02532659878044347</v>
+        <v>0.03329097259754241</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1502212042.102977</v>
+        <v>1483424248.753416</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1303087179245441</v>
+        <v>0.0926411844362848</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05261916899879123</v>
+        <v>0.04671419720978047</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2056573456.302948</v>
+        <v>1570148336.514053</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1367644131839647</v>
+        <v>0.1439638583850938</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04431010860662819</v>
+        <v>0.05870327213670836</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2183295214.505692</v>
+        <v>2698541157.986372</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07981849377388756</v>
+        <v>0.08050686626468158</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04565468245972836</v>
+        <v>0.02972876357466828</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3902460980.970787</v>
+        <v>4511170048.654232</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1262281520738074</v>
+        <v>0.1420161097289567</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03548846342975254</v>
+        <v>0.05247942160791237</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>47</v>
+      </c>
+      <c r="J93" t="n">
+        <v>104</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2482173695.304924</v>
+        <v>2395737738.590461</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1201926193328466</v>
+        <v>0.1015982164228169</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03617365907302387</v>
+        <v>0.03832995636492705</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2420596889.842983</v>
+        <v>3221256405.608727</v>
       </c>
       <c r="F95" t="n">
-        <v>0.132185149467566</v>
+        <v>0.1289520932341766</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04398009412479619</v>
+        <v>0.03320834107508807</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2127948553.320772</v>
+        <v>2134370396.495384</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1206770675127252</v>
+        <v>0.1027085446160795</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0357442100274449</v>
+        <v>0.03918391562745185</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4955224603.602276</v>
+        <v>4724858668.964271</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1485308918813274</v>
+        <v>0.1548285532923349</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02232398791024301</v>
+        <v>0.02195737955434149</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>50</v>
+      </c>
+      <c r="J97" t="n">
+        <v>103</v>
+      </c>
+      <c r="K97" t="n">
+        <v>157.6057617920035</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3016001412.659286</v>
+        <v>2902009766.353586</v>
       </c>
       <c r="F98" t="n">
-        <v>0.11507274027303</v>
+        <v>0.08553485201869414</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02249212627651198</v>
+        <v>0.03112387427921553</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>23</v>
+      </c>
+      <c r="J98" t="n">
+        <v>102</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2627384238.744829</v>
+        <v>3199545209.14204</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1171645764166132</v>
+        <v>0.1263735546457554</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02725785373980846</v>
+        <v>0.0232500938464596</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4558859314.995674</v>
+        <v>3867429376.949955</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1595117338224915</v>
+        <v>0.1456847485589211</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01735794877164705</v>
+        <v>0.01889668510701412</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>42</v>
+      </c>
+      <c r="J100" t="n">
+        <v>104</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3334033288.491915</v>
+        <v>3538445996.12555</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1977986115266543</v>
+        <v>0.1552165219430957</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04744903554747194</v>
+        <v>0.0481606251958133</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="n">
+        <v>113.8140649282228</v>
       </c>
     </row>
   </sheetData>
